--- a/工作小目标~干巴爹！.xlsx
+++ b/工作小目标~干巴爹！.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>目标描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,58 @@
   </si>
   <si>
     <t>认领者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作评价</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.5.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自选、加新闻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋益明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录功能完善</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏琰梓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章承尧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周梦佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js画折线图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>各种数据建表、单元测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -72,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,13 +161,31 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF39E74E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -130,19 +200,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF39E74E"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -441,15 +518,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -466,8 +543,11 @@
       <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="J1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -477,41 +557,88 @@
       <c r="F2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H4" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="F5" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="F15" s="1"/>
     </row>
   </sheetData>

--- a/工作小目标~干巴爹！.xlsx
+++ b/工作小目标~干巴爹！.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>目标描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,46 @@
   </si>
   <si>
     <t>各种数据建表、单元测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.5.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋益明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏琰梓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章承尧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周梦佳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新闻格式；重写入数据库；界面显示保留位数；排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>js画k线图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +561,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -604,6 +644,9 @@
       <c r="F7" t="s">
         <v>19</v>
       </c>
+      <c r="H7" s="5" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C8" t="s">
@@ -612,6 +655,9 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
+      <c r="H8" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C9" t="s">
@@ -620,6 +666,9 @@
       <c r="F9" t="s">
         <v>22</v>
       </c>
+      <c r="H9" s="5" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C10" t="s">
@@ -628,18 +677,38 @@
       <c r="F10" t="s">
         <v>23</v>
       </c>
+      <c r="H10" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F12" s="1"/>
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F14" s="1"/>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F15" s="1"/>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
